--- a/test/testInfo.xlsx
+++ b/test/testInfo.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\INSA LYON\2016-2017\Challenge\git\Challenge-CLSDeblurring\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TDSI\Challenge-CLSDeblurring\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,25 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>test6</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
   <si>
     <t>Gauss</t>
   </si>
@@ -50,15 +33,6 @@
     <t>Motion</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>hSize</t>
-  </si>
-  <si>
-    <t>sigma</t>
-  </si>
-  <si>
     <t>angle</t>
   </si>
   <si>
@@ -66,19 +40,167 @@
   </si>
   <si>
     <t>Gamma</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>PSNR</t>
+  </si>
+  <si>
+    <t>matlab wiener</t>
+  </si>
+  <si>
+    <t>Type de floutage</t>
+  </si>
+  <si>
+    <t>taille</t>
+  </si>
+  <si>
+    <t>sigma (gauss)</t>
+  </si>
+  <si>
+    <t>Image floue</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 0,001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 0,01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 0,1</t>
+    </r>
+  </si>
+  <si>
+    <t>sigma
+ (gauss)</t>
+  </si>
+  <si>
+    <t>angle
+(motion)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,7 +211,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -97,12 +219,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -125,22 +307,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>280035</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17814C77-E93F-46A5-A8DB-C4F767D3CE44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17814C77-E93F-46A5-A8DB-C4F767D3CE44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -148,8 +330,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5234940" y="396240"/>
-          <a:ext cx="3558540" cy="3390900"/>
+          <a:off x="4852035" y="2764155"/>
+          <a:ext cx="3406140" cy="3528060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -189,13 +371,8 @@
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t> matlab sont celles avec en entête le nom gauss ou motion. (fichier matlab : </a:t>
+            <a:t> matlab sont celles avec en entête le nom gauss ou motion. (fichier matlab : generateImg.m)</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t>generateImg.m)</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
@@ -543,149 +720,584 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="4"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5"/>
+      <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1">
+        <v>203.15</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1229.5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>317.75</v>
+      </c>
+      <c r="J2" s="1">
+        <v>471.14</v>
+      </c>
+      <c r="K2" s="2">
+        <v>25.052600000000002</v>
+      </c>
+      <c r="L2" s="2">
+        <v>17.234000000000002</v>
+      </c>
+      <c r="M2" s="2">
+        <v>23.11</v>
+      </c>
+      <c r="N2" s="2">
+        <v>21.399000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1">
+        <v>610.67999999999995</v>
+      </c>
+      <c r="H3" s="1">
+        <v>7783</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2279.3000000000002</v>
+      </c>
+      <c r="J3" s="1">
+        <v>557.79</v>
+      </c>
+      <c r="K3" s="2">
+        <v>20.273</v>
+      </c>
+      <c r="L3" s="2">
+        <v>9.2189999999999994</v>
+      </c>
+      <c r="M3" s="2">
+        <v>14.553000000000001</v>
+      </c>
+      <c r="N3" s="2">
+        <v>20.666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1">
+        <v>169.29</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3189.5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2665.2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2813.3</v>
+      </c>
+      <c r="K4" s="2">
+        <v>25.844999999999999</v>
+      </c>
+      <c r="L4" s="2">
+        <v>13.093999999999999</v>
+      </c>
+      <c r="M4" s="2">
+        <v>13.872999999999999</v>
+      </c>
+      <c r="N4" s="2">
+        <v>13.638999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>45</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1">
+        <v>607.4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6122</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3407.3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2626.7</v>
+      </c>
+      <c r="K5" s="2">
+        <v>20.295999999999999</v>
+      </c>
+      <c r="L5" s="2">
+        <v>10.269</v>
+      </c>
+      <c r="M5" s="2">
+        <v>12.807</v>
+      </c>
+      <c r="N5" s="2">
+        <v>10.269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>160.13999999999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>239.12</v>
+      </c>
+      <c r="I6" s="1">
+        <v>174.43</v>
+      </c>
+      <c r="J6" s="1">
+        <v>557.28</v>
+      </c>
+      <c r="K6" s="2">
+        <v>26.085999999999999</v>
+      </c>
+      <c r="L6" s="2">
+        <v>24.344999999999999</v>
+      </c>
+      <c r="M6" s="2">
+        <v>25.715</v>
+      </c>
+      <c r="N6" s="2">
+        <v>20.67</v>
+      </c>
+      <c r="O6" s="2">
+        <v>193.58</v>
+      </c>
+      <c r="P6" s="2">
+        <v>25.262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>45</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>125.17</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2754.2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2690.6</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2978.4</v>
+      </c>
+      <c r="K7" s="2">
+        <v>27.155999999999999</v>
+      </c>
+      <c r="L7" s="2">
+        <v>13.731</v>
+      </c>
+      <c r="M7" s="2">
+        <v>13.832000000000001</v>
+      </c>
+      <c r="N7" s="2">
+        <v>13.391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>1E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.01</v>
+      </c>
+      <c r="D11">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="B2">
+        <v>10</v>
       </c>
       <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>203.15</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1229.5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>317.75</v>
+      </c>
+      <c r="I2" s="1">
+        <v>471.14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1">
+        <v>610.67999999999995</v>
+      </c>
+      <c r="G3" s="1">
+        <v>7783</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2279.3000000000002</v>
+      </c>
+      <c r="I3" s="1">
+        <v>557.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>45</v>
+      </c>
+      <c r="E4">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="F4" s="1">
+        <v>169.29</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3189.5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2665.2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2813.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
+      <c r="B5">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D5">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1">
+        <v>607.4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6122</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3407.3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2626.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="F3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>160.13999999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>239.12</v>
+      </c>
+      <c r="H6" s="1">
+        <v>174.43</v>
+      </c>
+      <c r="I6" s="1">
+        <v>557.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="D7">
         <v>45</v>
       </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>45</v>
-      </c>
-      <c r="F5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="F6">
+      <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>45</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>1E-3</v>
-      </c>
-      <c r="C11">
-        <v>0.01</v>
-      </c>
-      <c r="D11">
-        <v>0.1</v>
+      <c r="F7" s="1">
+        <v>125.17</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2754.2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2690.6</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2978.4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>